--- a/Timesheets/Week10_2020-11-09/Joseph_Ledesma_2020_11_9.xlsx
+++ b/Timesheets/Week10_2020-11-09/Joseph_Ledesma_2020_11_9.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlede\Desktop\Fall 2020\CSCI 4308\Timesheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Class\Fall2020\capstone\4308_NASA\Timesheets\Week10_2020-11-09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C96434E-BB3E-417D-B20E-7EFFA5D13D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B294A1-4851-4F4C-B6F7-ED50CB5AD3CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13740" yWindow="4125" windowWidth="21510" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -497,7 +506,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
